--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H2">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.86186882418422</v>
+        <v>23.746319</v>
       </c>
       <c r="N2">
-        <v>4.86186882418422</v>
+        <v>71.238957</v>
       </c>
       <c r="O2">
-        <v>0.5247819451368438</v>
+        <v>0.7135031414879517</v>
       </c>
       <c r="P2">
-        <v>0.5247819451368438</v>
+        <v>0.7135031414879517</v>
       </c>
       <c r="Q2">
-        <v>29.20466881408904</v>
+        <v>244.8747565238057</v>
       </c>
       <c r="R2">
-        <v>29.20466881408904</v>
+        <v>2203.872808714251</v>
       </c>
       <c r="S2">
-        <v>0.2650251113045834</v>
+        <v>0.4518907475383086</v>
       </c>
       <c r="T2">
-        <v>0.2650251113045834</v>
+        <v>0.4518907475383086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H3">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.40268166052505</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N3">
-        <v>4.40268166052505</v>
+        <v>14.595625</v>
       </c>
       <c r="O3">
-        <v>0.4752180548631562</v>
+        <v>0.1461844014571983</v>
       </c>
       <c r="P3">
-        <v>0.4752180548631562</v>
+        <v>0.1461844014571983</v>
       </c>
       <c r="Q3">
-        <v>26.44638603779528</v>
+        <v>50.17058458881945</v>
       </c>
       <c r="R3">
-        <v>26.44638603779528</v>
+        <v>451.5352612993751</v>
       </c>
       <c r="S3">
-        <v>0.239994380620724</v>
+        <v>0.09258456566171831</v>
       </c>
       <c r="T3">
-        <v>0.239994380620724</v>
+        <v>0.09258456566171828</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.10249084289452</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H4">
-        <v>4.10249084289452</v>
+        <v>30.936343</v>
       </c>
       <c r="I4">
-        <v>0.3449107357650605</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J4">
-        <v>0.3449107357650605</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.86186882418422</v>
+        <v>4.669782333333333</v>
       </c>
       <c r="N4">
-        <v>4.86186882418422</v>
+        <v>14.009347</v>
       </c>
       <c r="O4">
-        <v>0.5247819451368438</v>
+        <v>0.1403124570548501</v>
       </c>
       <c r="P4">
-        <v>0.5247819451368438</v>
+        <v>0.1403124570548501</v>
       </c>
       <c r="Q4">
-        <v>19.94577233057011</v>
+        <v>48.15532933311344</v>
       </c>
       <c r="R4">
-        <v>19.94577233057011</v>
+        <v>433.397963998021</v>
       </c>
       <c r="S4">
-        <v>0.1810029268133684</v>
+        <v>0.08886562289722406</v>
       </c>
       <c r="T4">
-        <v>0.1810029268133684</v>
+        <v>0.08886562289722406</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.10249084289452</v>
+        <v>4.103438</v>
       </c>
       <c r="H5">
-        <v>4.10249084289452</v>
+        <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>4.40268166052505</v>
+        <v>23.746319</v>
       </c>
       <c r="N5">
-        <v>4.40268166052505</v>
+        <v>71.238957</v>
       </c>
       <c r="O5">
-        <v>0.4752180548631562</v>
+        <v>0.7135031414879517</v>
       </c>
       <c r="P5">
-        <v>0.4752180548631562</v>
+        <v>0.7135031414879517</v>
       </c>
       <c r="Q5">
-        <v>18.06196119648366</v>
+        <v>97.44154774472199</v>
       </c>
       <c r="R5">
-        <v>18.06196119648366</v>
+        <v>876.9739297024979</v>
       </c>
       <c r="S5">
-        <v>0.1639078089516921</v>
+        <v>0.1798181832898383</v>
       </c>
       <c r="T5">
-        <v>0.1639078089516921</v>
+        <v>0.1798181832898383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.78498319378175</v>
+        <v>4.103438</v>
       </c>
       <c r="H6">
-        <v>1.78498319378175</v>
+        <v>12.310314</v>
       </c>
       <c r="I6">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J6">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.86186882418422</v>
+        <v>4.865208333333334</v>
       </c>
       <c r="N6">
-        <v>4.86186882418422</v>
+        <v>14.595625</v>
       </c>
       <c r="O6">
-        <v>0.5247819451368438</v>
+        <v>0.1461844014571983</v>
       </c>
       <c r="P6">
-        <v>0.5247819451368438</v>
+        <v>0.1461844014571983</v>
       </c>
       <c r="Q6">
-        <v>8.67835414154027</v>
+        <v>19.96408075291667</v>
       </c>
       <c r="R6">
-        <v>8.67835414154027</v>
+        <v>179.67672677625</v>
       </c>
       <c r="S6">
-        <v>0.07875390701889197</v>
+        <v>0.03684162264587544</v>
       </c>
       <c r="T6">
-        <v>0.07875390701889197</v>
+        <v>0.03684162264587542</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.78498319378175</v>
+        <v>4.103438</v>
       </c>
       <c r="H7">
-        <v>1.78498319378175</v>
+        <v>12.310314</v>
       </c>
       <c r="I7">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J7">
-        <v>0.150069772309632</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.40268166052505</v>
+        <v>4.669782333333333</v>
       </c>
       <c r="N7">
-        <v>4.40268166052505</v>
+        <v>14.009347</v>
       </c>
       <c r="O7">
-        <v>0.4752180548631562</v>
+        <v>0.1403124570548501</v>
       </c>
       <c r="P7">
-        <v>0.4752180548631562</v>
+        <v>0.1403124570548501</v>
       </c>
       <c r="Q7">
-        <v>7.858712771608342</v>
+        <v>19.16216227832867</v>
       </c>
       <c r="R7">
-        <v>7.858712771608342</v>
+        <v>172.459460504958</v>
       </c>
       <c r="S7">
-        <v>0.07131586529074006</v>
+        <v>0.03536176598735079</v>
       </c>
       <c r="T7">
-        <v>0.07131586529074006</v>
+        <v>0.03536176598735079</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.866538</v>
+      </c>
+      <c r="H8">
+        <v>5.599614</v>
+      </c>
+      <c r="I8">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J8">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>23.746319</v>
+      </c>
+      <c r="N8">
+        <v>71.238957</v>
+      </c>
+      <c r="O8">
+        <v>0.7135031414879517</v>
+      </c>
+      <c r="P8">
+        <v>0.7135031414879517</v>
+      </c>
+      <c r="Q8">
+        <v>44.323406773622</v>
+      </c>
+      <c r="R8">
+        <v>398.910660962598</v>
+      </c>
+      <c r="S8">
+        <v>0.08179421065980483</v>
+      </c>
+      <c r="T8">
+        <v>0.08179421065980481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.866538</v>
+      </c>
+      <c r="H9">
+        <v>5.599614</v>
+      </c>
+      <c r="I9">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J9">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.865208333333334</v>
+      </c>
+      <c r="N9">
+        <v>14.595625</v>
+      </c>
+      <c r="O9">
+        <v>0.1461844014571983</v>
+      </c>
+      <c r="P9">
+        <v>0.1461844014571983</v>
+      </c>
+      <c r="Q9">
+        <v>9.081096232083334</v>
+      </c>
+      <c r="R9">
+        <v>81.72986608875001</v>
+      </c>
+      <c r="S9">
+        <v>0.01675821314960456</v>
+      </c>
+      <c r="T9">
+        <v>0.01675821314960456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.866538</v>
+      </c>
+      <c r="H10">
+        <v>5.599614</v>
+      </c>
+      <c r="I10">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="J10">
+        <v>0.1146374919796846</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.669782333333333</v>
+      </c>
+      <c r="N10">
+        <v>14.009347</v>
+      </c>
+      <c r="O10">
+        <v>0.1403124570548501</v>
+      </c>
+      <c r="P10">
+        <v>0.1403124570548501</v>
+      </c>
+      <c r="Q10">
+        <v>8.716326176895333</v>
+      </c>
+      <c r="R10">
+        <v>78.446935592058</v>
+      </c>
+      <c r="S10">
+        <v>0.01608506817027522</v>
+      </c>
+      <c r="T10">
+        <v>0.01608506817027521</v>
       </c>
     </row>
   </sheetData>
